--- a/Exercicio aula 17.08.23.xlsx
+++ b/Exercicio aula 17.08.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7958C56E-EAC3-415D-8CB5-6303CEE090CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B230C-35D8-4A67-BBDC-6CDC4026064B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B62EE3D-91CD-4214-A18C-DF190D4E6E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0B62EE3D-91CD-4214-A18C-DF190D4E6E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Valor:</t>
   </si>
@@ -65,12 +65,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Importancia</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>QTDE</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -260,11 +278,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +464,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA198E9D-9C30-4FB9-AE17-7B53E73963C1}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="15">
         <v>300</v>
@@ -746,6 +916,57 @@
       <c r="C10" s="9">
         <f>+SUM(C2:C9)</f>
         <v>2979.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16">
+        <f>COUNTIF(B2:B9,A13)</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="21">
+        <f>SUMIF(B2:B9,"Alta",C2:C9)</f>
+        <v>2679.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <f>COUNTIF(B3:B10,A14)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <f>SUMIF(B2:B9,A14,C2:C9)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23">
+        <f>COUNTIF(B4:B11,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <f>SUMIF(B2:B9,A15,C2:C9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Exercicio aula 17.08.23.xlsx
+++ b/Exercicio aula 17.08.23.xlsx
@@ -2,20 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B230C-35D8-4A67-BBDC-6CDC4026064B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC606D2-A4BD-4D80-B9BD-4FB9C729C880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0B62EE3D-91CD-4214-A18C-DF190D4E6E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0B62EE3D-91CD-4214-A18C-DF190D4E6E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Gastos">Planilha1!$A$1:$C$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Valor:</t>
   </si>
@@ -81,6 +88,18 @@
   <si>
     <t>Valor</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Valor:</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,6 +500,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,6 +520,1173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Exercicio aula 17.08.23.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14469203849518811"/>
+          <c:y val="0.35876166520851555"/>
+          <c:w val="0.76112270341207344"/>
+          <c:h val="0.34409120734908138"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Emergencias </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gás</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Luz</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Produtos limpeza
+/higiênicos </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2979.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E702-42F7-885F-2D6C866014BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1723356736"/>
+        <c:axId val="1807203120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1723356736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807203120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807203120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723356736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB086E09-F305-4CC8-840A-404BD6FA7190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45162.838875231479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" xr:uid="{EF59ABD8-10E8-4E99-A65C-49179345AAE1}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Gastos"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Despesa:" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="Alimentação"/>
+        <s v="Luz"/>
+        <s v="Água"/>
+        <s v="Produtos limpeza_x000a_/higiênicos "/>
+        <s v="Internet"/>
+        <s v="Gás"/>
+        <s v="Transporte"/>
+        <s v="Emergencias "/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Importancia :" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Alta"/>
+        <s v="Media"/>
+        <s v="Total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor:" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="2979.9"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="199.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="2979.9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D859A154-B685-4E85-B935-887AB25BC56F}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor:" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,9 +1988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA198E9D-9C30-4FB9-AE17-7B53E73963C1}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,4 +2164,112 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636B5410-4C4B-4458-BCAE-51DD4B070E1B}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="27">
+        <v>2979.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="27">
+        <v>5959.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>